--- a/dict/prefix.xlsx
+++ b/dict/prefix.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masayukikishi/Dropbox (Personal)/masayuki_kishi/repositories/create_names_v2/dict/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB8C27C-611D-D348-A767-42BB37F29563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B935773C-7CEC-7543-A867-50DA56C1BAD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20720" xr2:uid="{1ED5CA03-E3A9-144B-B2A8-9DA0B6C9D845}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="266">
   <si>
     <t>examples</t>
   </si>
@@ -809,15 +809,6 @@
   </si>
   <si>
     <t>definitions</t>
-  </si>
-  <si>
-    <t>keyword_user_score</t>
-  </si>
-  <si>
-    <t>keyword_wiki_score</t>
-  </si>
-  <si>
-    <t>keyword_total_score</t>
   </si>
   <si>
     <t>pairing_limitations</t>
@@ -1214,10 +1205,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304A3045-6D7A-C04B-A0C9-2D677531B0A1}">
-  <dimension ref="A1:M65"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1232,11 +1223,9 @@
     <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>254</v>
@@ -1254,28 +1243,19 @@
         <v>1</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -1299,20 +1279,11 @@
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J2" s="1"/>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1336,20 +1307,11 @@
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J3" s="1"/>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1373,20 +1335,11 @@
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J4" s="1"/>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1410,20 +1363,11 @@
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1447,20 +1391,11 @@
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1484,20 +1419,11 @@
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J7" s="1"/>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1511,30 +1437,21 @@
         <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>256</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J8" s="1"/>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1548,30 +1465,21 @@
         <v>29</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>256</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1595,20 +1503,11 @@
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1632,20 +1531,11 @@
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1669,20 +1559,11 @@
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J12" s="1"/>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1706,20 +1587,11 @@
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J13" s="1"/>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1743,20 +1615,11 @@
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J14" s="1"/>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1780,20 +1643,11 @@
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J15" s="1"/>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -1817,20 +1671,11 @@
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -1854,20 +1699,11 @@
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J17" s="1"/>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -1891,20 +1727,11 @@
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J18" s="1"/>
-      <c r="K18">
-        <v>2</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -1928,20 +1755,11 @@
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J19" s="1"/>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -1965,20 +1783,11 @@
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J20" s="1"/>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -2002,20 +1811,11 @@
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -2039,20 +1839,11 @@
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J22" s="1"/>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -2076,20 +1867,11 @@
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J23" s="1"/>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -2113,20 +1895,11 @@
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J24" s="1"/>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -2150,20 +1923,11 @@
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J25" s="1"/>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -2187,20 +1951,11 @@
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J26" s="1"/>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -2224,20 +1979,11 @@
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J27" s="1"/>
-      <c r="K27">
-        <v>2</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -2261,20 +2007,11 @@
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J28" s="1"/>
-      <c r="K28">
-        <v>2</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -2298,20 +2035,11 @@
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J29" s="1"/>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -2335,20 +2063,11 @@
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J30" s="1"/>
-      <c r="K30">
-        <v>2</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -2372,20 +2091,11 @@
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J31" s="1"/>
-      <c r="K31">
-        <v>2</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -2409,20 +2119,11 @@
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J32" s="1"/>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -2446,20 +2147,11 @@
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J33" s="1"/>
-      <c r="K33">
-        <v>2</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -2483,20 +2175,11 @@
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J34" s="1"/>
-      <c r="K34">
-        <v>2</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -2520,20 +2203,11 @@
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J35" s="1"/>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -2557,20 +2231,11 @@
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J36" s="1"/>
-      <c r="K36">
-        <v>2</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -2594,20 +2259,11 @@
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J37" s="1"/>
-      <c r="K37">
-        <v>2</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -2631,20 +2287,11 @@
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J38" s="1"/>
-      <c r="K38">
-        <v>2</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -2668,20 +2315,11 @@
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J39" s="1"/>
-      <c r="K39">
-        <v>2</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -2705,20 +2343,11 @@
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J40" s="1"/>
-      <c r="K40">
-        <v>2</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -2742,20 +2371,11 @@
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J41" s="1"/>
-      <c r="K41">
-        <v>2</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -2779,20 +2399,11 @@
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J42" s="1"/>
-      <c r="K42">
-        <v>2</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -2816,20 +2427,11 @@
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J43" s="1"/>
-      <c r="K43">
-        <v>2</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -2853,20 +2455,11 @@
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J44" s="1"/>
-      <c r="K44">
-        <v>2</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -2890,20 +2483,11 @@
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J45" s="1"/>
-      <c r="K45">
-        <v>2</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -2927,20 +2511,11 @@
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J46" s="1"/>
-      <c r="K46">
-        <v>2</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -2964,20 +2539,11 @@
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J47" s="1"/>
-      <c r="K47">
-        <v>2</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>46</v>
       </c>
@@ -3001,20 +2567,11 @@
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J48" s="1"/>
-      <c r="K48">
-        <v>2</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>47</v>
       </c>
@@ -3038,20 +2595,11 @@
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J49" s="1"/>
-      <c r="K49">
-        <v>2</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>48</v>
       </c>
@@ -3075,20 +2623,11 @@
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J50" s="1"/>
-      <c r="K50">
-        <v>2</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>49</v>
       </c>
@@ -3112,20 +2651,11 @@
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J51" s="1"/>
-      <c r="K51">
-        <v>2</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>50</v>
       </c>
@@ -3149,20 +2679,11 @@
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J52" s="1"/>
-      <c r="K52">
-        <v>2</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>51</v>
       </c>
@@ -3186,20 +2707,11 @@
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J53" s="1"/>
-      <c r="K53">
-        <v>2</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>52</v>
       </c>
@@ -3223,20 +2735,11 @@
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J54" s="1"/>
-      <c r="K54">
-        <v>2</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>53</v>
       </c>
@@ -3260,20 +2763,11 @@
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J55" s="1"/>
-      <c r="K55">
-        <v>2</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>54</v>
       </c>
@@ -3297,20 +2791,11 @@
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J56" s="1"/>
-      <c r="K56">
-        <v>2</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>55</v>
       </c>
@@ -3334,20 +2819,11 @@
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J57" s="1"/>
-      <c r="K57">
-        <v>2</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>56</v>
       </c>
@@ -3371,20 +2847,11 @@
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J58" s="1"/>
-      <c r="K58">
-        <v>2</v>
-      </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-      <c r="M58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>57</v>
       </c>
@@ -3408,20 +2875,11 @@
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J59" s="1"/>
-      <c r="K59">
-        <v>2</v>
-      </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="M59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>58</v>
       </c>
@@ -3445,20 +2903,11 @@
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J60" s="1"/>
-      <c r="K60">
-        <v>2</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>59</v>
       </c>
@@ -3482,20 +2931,11 @@
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J61" s="1"/>
-      <c r="K61">
-        <v>2</v>
-      </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
-      <c r="M61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>60</v>
       </c>
@@ -3519,20 +2959,11 @@
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J62" s="1"/>
-      <c r="K62">
-        <v>2</v>
-      </c>
-      <c r="L62">
-        <v>0</v>
-      </c>
-      <c r="M62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>61</v>
       </c>
@@ -3556,20 +2987,11 @@
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J63" s="1"/>
-      <c r="K63">
-        <v>2</v>
-      </c>
-      <c r="L63">
-        <v>0</v>
-      </c>
-      <c r="M63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>62</v>
       </c>
@@ -3593,20 +3015,11 @@
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J64" s="1"/>
-      <c r="K64">
-        <v>2</v>
-      </c>
-      <c r="L64">
-        <v>0</v>
-      </c>
-      <c r="M64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>63</v>
       </c>
@@ -3630,18 +3043,9 @@
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J65" s="1"/>
-      <c r="K65">
-        <v>2</v>
-      </c>
-      <c r="L65">
-        <v>0</v>
-      </c>
-      <c r="M65">
-        <v>2</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dict/prefix.xlsx
+++ b/dict/prefix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masayukikishi/Dropbox (Personal)/masayuki_kishi/repositories/create_names_v2/dict/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B935773C-7CEC-7543-A867-50DA56C1BAD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1048F835-CFD5-A849-80C2-02D55450DC30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20720" xr2:uid="{1ED5CA03-E3A9-144B-B2A8-9DA0B6C9D845}"/>
   </bookViews>
@@ -832,7 +832,7 @@
     <t>s</t>
   </si>
   <si>
-    <t>Keyword shortlist (insert "s")</t>
+    <t>shortlist</t>
   </si>
 </sst>
 </file>
@@ -1208,7 +1208,7 @@
   <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
